--- a/biology/Histoire de la zoologie et de la botanique/Erich_Carl_Walter/Erich_Carl_Walter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Erich_Carl_Walter/Erich_Carl_Walter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erich Carl Walter est un entomologiste allemand, né le 11 juin 1903 à Schwaan et mort le 22 décembre 1990.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Carl Walter (1878-1932) et d’Alwina Gaiser Walter (1883-1958). son père démissionne de son poste de fonctionnaire pour partir s’installer en Californie, à Anaheim, colonie fondée en 1858 par des expatriés allemands. C’est son père, amateur de papillons, qui initie son fils à l’entomologie.
 Le père et le fils deviennent des membres actifs de la Lorquin Entomological Society, hébergé par le Muséum d'histoire naturelle du comté de Los Angeles. Ils deviennent des récolteurs réputés pour les espèces rares qu’ils découvrent. Leur riche collection est totalement détruite lors d’un incendie durant la nuit du 27 mai 1932. Carl subit un choc immense, voyant l’œuvre de sa vie détruite et meurt peu après.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">John W. Johnson (2001). A Tribute to the Lepidopterists Erich Carl Walter (1903-1990) and his Father Carl Walter (1878-1932), Myia, 6 : 213-218.
  Portail de l’histoire de la zoologie et de la botanique   Portail des États-Unis   Portail de l’entomologie   Portail de la zoologie                  </t>
